--- a/lab_03/charts.xlsx
+++ b/lab_03/charts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vvolk\Documents\GitHub\BMSTU-EPE\lab_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50D780E-4F32-4186-95D6-6648C5ED7DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687EB06-DC6B-4CF7-984D-A5D604A1D5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5CFBFED6-DE72-4D84-9695-69383BD5855D}"/>
   </bookViews>
@@ -50,19 +50,10 @@
     <t>Группа: Нет значения</t>
   </si>
   <si>
-    <t>3 624,28 ч</t>
-  </si>
-  <si>
     <t>Группа: Internet</t>
   </si>
   <si>
-    <t>171,15 ч</t>
-  </si>
-  <si>
     <t>Группа: Анализ</t>
-  </si>
-  <si>
-    <t>203,15 ч</t>
   </si>
   <si>
     <t>Группа: Ввод данных</t>
@@ -74,22 +65,31 @@
     <t>Группа: Дизайн</t>
   </si>
   <si>
-    <t>446,28 ч</t>
-  </si>
-  <si>
     <t>Группа: Документация</t>
   </si>
   <si>
     <t>Группа: М-медия</t>
   </si>
   <si>
-    <t>243,15 ч</t>
-  </si>
-  <si>
     <t>Группа: Программирование</t>
   </si>
   <si>
-    <t>2 723,15 ч</t>
+    <t>3 075 ч</t>
+  </si>
+  <si>
+    <t>190 ч</t>
+  </si>
+  <si>
+    <t>222 ч</t>
+  </si>
+  <si>
+    <t>484 ч</t>
+  </si>
+  <si>
+    <t>262 ч</t>
+  </si>
+  <si>
+    <t>2 742 ч</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -180,9 +180,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,28 +524,28 @@
                 <c:formatCode>"₽"#,##0.00_);[Red]\("₽"#,##0.00\)</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7248.57</c:v>
+                  <c:v>6150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1403</c:v>
+                  <c:v>1480</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4662.8599999999997</c:v>
+                  <c:v>5040</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4850</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4144.29</c:v>
+                  <c:v>4292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1077.71</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>771.43</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22822.53</c:v>
+                  <c:v>22764.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,29 +967,29 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="#,##0.00">
-                  <c:v>3624.28</c:v>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>3075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.15</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203.15</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0">
                   <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>446.28</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203.15</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>243.15</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="#,##0.00">
-                  <c:v>2723.15</c:v>
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0">
+                  <c:v>2742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2237,7 +2234,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2270,7 +2267,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9304587" cy="6084979"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2599,7 +2596,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H9"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,135 +2626,135 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>7248.57</v>
+        <v>6150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="4">
-        <v>3624.28</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>1403</v>
+        <v>1480</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>171.15</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>4662.8599999999997</v>
+        <v>5040</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>203.15</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>4850</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="5">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4">
         <v>2400</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3">
-        <v>4144.29</v>
+        <v>4292</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
-        <v>446.28</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
-        <v>1077.71</v>
+        <v>1150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" s="2">
-        <v>203.15</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
-        <v>771.43</v>
+        <v>806</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="2">
-        <v>243.15</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
-        <v>22822.53</v>
+        <v>22764.02</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H9" s="4">
-        <v>2723.15</v>
+        <v>2742</v>
       </c>
     </row>
   </sheetData>
